--- a/cdh/presentation/spirits_calculations.xlsx
+++ b/cdh/presentation/spirits_calculations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amywinecoff/Documents/CITP/Research/Github/ml-teaching/cdh/presentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{555F4348-467A-BB46-B01B-A56E397D8E1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{F74EB58E-94CE-5548-AAFB-DED2E5DF5520}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4300" yWindow="2760" windowWidth="27640" windowHeight="16940"/>
+    <workbookView xWindow="4400" yWindow="3660" windowWidth="27640" windowHeight="16940"/>
   </bookViews>
   <sheets>
     <sheet name="spirits_unknown_1" sheetId="1" r:id="rId1"/>
@@ -59,9 +59,6 @@
     <t>Knob Creek Bourbon</t>
   </si>
   <si>
-    <t>Unknown</t>
-  </si>
-  <si>
     <t>type</t>
   </si>
   <si>
@@ -81,6 +78,9 @@
   </si>
   <si>
     <t>sum</t>
+  </si>
+  <si>
+    <t>Unknown Spirit</t>
   </si>
 </sst>
 </file>
@@ -924,7 +924,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -945,19 +945,19 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
         <v>14</v>
-      </c>
-      <c r="G1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -971,11 +971,11 @@
         <v>0.5</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E2">
         <f>(B2-B8)^2</f>
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="F2">
         <f>(C2-C8)^2</f>
@@ -983,11 +983,11 @@
       </c>
       <c r="G2">
         <f>SUM(E2+F2)</f>
-        <v>6.5</v>
+        <v>7.25</v>
       </c>
       <c r="H2">
         <f>SQRT(G2)</f>
-        <v>2.5495097567963922</v>
+        <v>2.6925824035672519</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -1001,11 +1001,11 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3">
         <f>(B3-B8)^2</f>
-        <v>2.25</v>
+        <v>1</v>
       </c>
       <c r="F3">
         <f>(C3-C8)^2</f>
@@ -1013,11 +1013,11 @@
       </c>
       <c r="G3">
         <f>SUM(E3+F3)</f>
-        <v>6.25</v>
+        <v>5</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H7" si="0">SQRT(G3)</f>
-        <v>2.5</v>
+        <f>SQRT(G3)</f>
+        <v>2.2360679774997898</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -1031,23 +1031,23 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4">
         <f>(B4-B8)^2</f>
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="F4">
         <f>(C4-C8)^2</f>
         <v>1</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:G7" si="1">SUM(E4+F4)</f>
-        <v>2</v>
+        <f>SUM(E4+F4)</f>
+        <v>1.25</v>
       </c>
       <c r="H4">
-        <f t="shared" si="0"/>
-        <v>1.4142135623730951</v>
+        <f>SQRT(G4)</f>
+        <v>1.1180339887498949</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -1061,23 +1061,23 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E5">
         <f>(B5-B8)^2</f>
-        <v>20.25</v>
+        <v>25</v>
       </c>
       <c r="F5">
         <f>(C5-C8)^2</f>
         <v>1</v>
       </c>
       <c r="G5">
-        <f t="shared" si="1"/>
-        <v>21.25</v>
+        <f>SUM(E5+F5)</f>
+        <v>26</v>
       </c>
       <c r="H5">
-        <f t="shared" si="0"/>
-        <v>4.6097722286464435</v>
+        <f>SQRT(G5)</f>
+        <v>5.0990195135927845</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -1091,23 +1091,23 @@
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E6">
         <f>(B6-B8)^2</f>
-        <v>6.25</v>
+        <v>9</v>
       </c>
       <c r="F6">
         <f>(C6-C8)^2</f>
         <v>1</v>
       </c>
       <c r="G6">
-        <f t="shared" si="1"/>
-        <v>7.25</v>
+        <f>SUM(E6+F6)</f>
+        <v>10</v>
       </c>
       <c r="H6">
-        <f t="shared" si="0"/>
-        <v>2.6925824035672519</v>
+        <f>SQRT(G6)</f>
+        <v>3.1622776601683795</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -1121,31 +1121,31 @@
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E7">
         <f>(B7-B8)^2</f>
-        <v>2.25</v>
+        <v>4</v>
       </c>
       <c r="F7">
         <f>(C7-C8)^2</f>
         <v>4</v>
       </c>
       <c r="G7">
-        <f t="shared" si="1"/>
-        <v>6.25</v>
+        <f>SUM(E7+F7)</f>
+        <v>8</v>
       </c>
       <c r="H7">
-        <f t="shared" si="0"/>
-        <v>2.5</v>
+        <f>SQRT(G7)</f>
+        <v>2.8284271247461903</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B8">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -1153,5 +1153,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>